--- a/datasets/indian_stock_indices/Stock_Indices.xlsx
+++ b/datasets/indian_stock_indices/Stock_Indices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b3fc5d69acd17a31/Desktop/btp/datasets/indian_stock_indices/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eshub\OneDrive\Desktop\btp\datasets\indian_stock_indices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_F25DC773A252ABDACC104897419A6EE45BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6B06F66-C186-4F3B-96F1-CD033A9CBD65}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCA838E-1182-4667-BB12-6DCCF6696A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -368,7 +368,7 @@
   <dimension ref="A1:D2470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
